--- a/Dkiet.xlsx
+++ b/Dkiet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tin học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bai tap ve nha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54349F86-4E08-4B48-8F82-8E05B8A68106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B208D-E4F5-4836-9B04-F766F8EC0646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b1" sheetId="7" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #.##0.00_);_(* \(#.##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1838,7 +1838,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1952,19 +1952,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -2039,6 +2027,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2087,8 +2077,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="10" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2587,14 +2589,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2611,33 +2613,33 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="98" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="K3" s="109" t="s">
+      <c r="I3" s="104"/>
+      <c r="K3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="110"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2950,12 +2952,12 @@
         <v>Khá</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="107"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
@@ -3013,7 +3015,7 @@
       <c r="E14" s="4">
         <v>9.86</v>
       </c>
-      <c r="F14" s="103" t="str">
+      <c r="F14" s="95" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3050,7 +3052,7 @@
       <c r="E15" s="13">
         <v>9.66</v>
       </c>
-      <c r="F15" s="103" t="str">
+      <c r="F15" s="95" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3075,7 +3077,7 @@
       <c r="E16" s="4">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F16" s="103" t="str">
+      <c r="F16" s="95" t="str">
         <f t="shared" si="1"/>
         <v>Xuất sắc</v>
       </c>
@@ -3143,89 +3145,89 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="87"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="87"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="87"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="88"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="30"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
@@ -3264,45 +3266,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="71" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="71" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="11" style="71" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="71" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="71" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="71" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="71" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="71" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="71" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="71" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="71" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="71" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="71" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="71" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="71"/>
+    <col min="1" max="1" width="13" style="63" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="63" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="63" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="63" customWidth="1"/>
+    <col min="8" max="8" width="11" style="63" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="63" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="63" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="63" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="63" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="63" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" style="63" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="63" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="63" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="63" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" style="63" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="31" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
       <c r="I1" s="31" t="s">
         <v>60</v>
       </c>
@@ -3374,7 +3376,7 @@
       <c r="E3" s="40">
         <v>13</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="100">
         <f>INT(VLOOKUP(LEFT(A3,2),$I$10:$K$14,3,0)*$L$1)</f>
         <v>20332550</v>
       </c>
@@ -3382,7 +3384,7 @@
         <f>F3*E3</f>
         <v>264323150</v>
       </c>
-      <c r="I3" s="90">
+      <c r="I3" s="82">
         <v>11</v>
       </c>
       <c r="J3" s="43" t="s">
@@ -3396,7 +3398,7 @@
         <f>INT(600000+K3*3%)</f>
         <v>22416931</v>
       </c>
-      <c r="M3" s="92">
+      <c r="M3" s="84">
         <f>IF(L3&gt;4000000,INT(L3*10%),L3)</f>
         <v>2241693</v>
       </c>
@@ -3418,13 +3420,13 @@
         <v>Toshiba</v>
       </c>
       <c r="D4" s="40" t="str">
-        <f t="shared" ref="D3:D4" si="2">VLOOKUP(VALUE(RIGHT(A4,2)),$I$3:$N$6,2,0)</f>
+        <f t="shared" ref="D4" si="2">VLOOKUP(VALUE(RIGHT(A4,2)),$I$3:$N$6,2,0)</f>
         <v>Thanh Long</v>
       </c>
       <c r="E4" s="40">
         <v>25</v>
       </c>
-      <c r="F4" s="124">
+      <c r="F4" s="100">
         <f t="shared" ref="F4:F20" si="3">INT(VLOOKUP(LEFT(A4,2),$I$10:$K$14,3,0)*$L$1)</f>
         <v>20332550</v>
       </c>
@@ -3432,7 +3434,7 @@
         <f t="shared" ref="G4:G20" si="4">F4*E4</f>
         <v>508313750</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="82">
         <v>22</v>
       </c>
       <c r="J4" s="43" t="s">
@@ -3446,7 +3448,7 @@
         <f t="shared" ref="L4:L6" si="5">INT(600000+K4*3%)</f>
         <v>44568243</v>
       </c>
-      <c r="M4" s="92">
+      <c r="M4" s="84">
         <f t="shared" ref="M4:M6" si="6">IF(L4&gt;4000000,INT(L4*10%),L4)</f>
         <v>4456824</v>
       </c>
@@ -3474,7 +3476,7 @@
       <c r="E5" s="40">
         <v>31</v>
       </c>
-      <c r="F5" s="124">
+      <c r="F5" s="100">
         <f t="shared" si="3"/>
         <v>20332550</v>
       </c>
@@ -3482,7 +3484,7 @@
         <f t="shared" si="4"/>
         <v>630309050</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="82">
         <v>33</v>
       </c>
       <c r="J5" s="43" t="s">
@@ -3496,7 +3498,7 @@
         <f t="shared" si="5"/>
         <v>32703726</v>
       </c>
-      <c r="M5" s="92">
+      <c r="M5" s="84">
         <f t="shared" si="6"/>
         <v>3270372</v>
       </c>
@@ -3524,7 +3526,7 @@
       <c r="E6" s="40">
         <v>33</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="100">
         <f t="shared" si="3"/>
         <v>20332550</v>
       </c>
@@ -3532,7 +3534,7 @@
         <f t="shared" si="4"/>
         <v>670974150</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="83">
         <v>44</v>
       </c>
       <c r="J6" s="47" t="s">
@@ -3546,7 +3548,7 @@
         <f t="shared" si="5"/>
         <v>22502897</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="84">
         <f t="shared" si="6"/>
         <v>2250289</v>
       </c>
@@ -3574,7 +3576,7 @@
       <c r="E7" s="40">
         <v>19</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="100">
         <f t="shared" si="3"/>
         <v>20332550</v>
       </c>
@@ -3602,7 +3604,7 @@
       <c r="E8" s="40">
         <v>14</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="100">
         <f t="shared" si="3"/>
         <v>6763470</v>
       </c>
@@ -3610,16 +3612,16 @@
         <f t="shared" si="4"/>
         <v>94688580</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="117"/>
-      <c r="M8" s="118" t="s">
+      <c r="J8" s="110"/>
+      <c r="K8" s="111"/>
+      <c r="M8" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="119"/>
-      <c r="O8" s="120"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
     </row>
     <row r="9" spans="1:15" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -3640,7 +3642,7 @@
       <c r="E9" s="40">
         <v>31</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="100">
         <f t="shared" si="3"/>
         <v>6763470</v>
       </c>
@@ -3686,7 +3688,7 @@
       <c r="E10" s="40">
         <v>24</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F10" s="100">
         <f t="shared" si="3"/>
         <v>6763470</v>
       </c>
@@ -3732,7 +3734,7 @@
       <c r="E11" s="40">
         <v>11</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="100">
         <f t="shared" si="3"/>
         <v>10745700</v>
       </c>
@@ -3769,7 +3771,7 @@
       <c r="E12" s="40">
         <v>21</v>
       </c>
-      <c r="F12" s="124">
+      <c r="F12" s="100">
         <f t="shared" si="3"/>
         <v>10745700</v>
       </c>
@@ -3806,7 +3808,7 @@
       <c r="E13" s="40">
         <v>19</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="100">
         <f t="shared" si="3"/>
         <v>10745700</v>
       </c>
@@ -3843,7 +3845,7 @@
       <c r="E14" s="40">
         <v>39</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="100">
         <f t="shared" si="3"/>
         <v>3897950</v>
       </c>
@@ -3880,7 +3882,7 @@
       <c r="E15" s="40">
         <v>33</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="100">
         <f t="shared" si="3"/>
         <v>3897950</v>
       </c>
@@ -3908,7 +3910,7 @@
       <c r="E16" s="40">
         <v>37</v>
       </c>
-      <c r="F16" s="124">
+      <c r="F16" s="100">
         <f t="shared" si="3"/>
         <v>2423050</v>
       </c>
@@ -3922,14 +3924,14 @@
       <c r="J16" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="57" t="s">
+      <c r="L16" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60" t="s">
+      <c r="M16" s="120"/>
+      <c r="N16" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="61"/>
+      <c r="O16" s="122"/>
     </row>
     <row r="17" spans="1:15" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
@@ -3950,7 +3952,7 @@
       <c r="E17" s="40">
         <v>21</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="100">
         <f t="shared" si="3"/>
         <v>2423050</v>
       </c>
@@ -3964,14 +3966,14 @@
       <c r="J17" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63" t="s">
+      <c r="L17" s="123"/>
+      <c r="M17" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="125" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3994,7 +3996,7 @@
       <c r="E18" s="40">
         <v>5</v>
       </c>
-      <c r="F18" s="124">
+      <c r="F18" s="100">
         <f t="shared" si="3"/>
         <v>2423050</v>
       </c>
@@ -4005,24 +4007,21 @@
       <c r="I18" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="86">
         <f ca="1">SUMIF($B$3:$G$20,I18,$G$3:$G$20)</f>
         <v>237458900</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="92">
-        <f>SUMIFS($G$3:$G$20,$B$3:$B$20,L18,$C$3:$C$20,$M$17)</f>
-        <v>191420950</v>
-      </c>
-      <c r="N18" s="92">
-        <f>SUMIFS($G$3:$G$20,$B$3:$B$20,L18,$C$3:$C$20,$N$17)</f>
-        <v>33922700</v>
-      </c>
-      <c r="O18" s="92">
-        <f>SUMIFS($G$3:$G$20,$B$3:$B$20,L18,$C$3:$C$20,$O$17)</f>
-        <v>12115250</v>
+      <c r="M18" s="118">
+        <v>79</v>
+      </c>
+      <c r="N18" s="118">
+        <v>14</v>
+      </c>
+      <c r="O18" s="118">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4044,7 +4043,7 @@
       <c r="E19" s="40">
         <v>14</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="100">
         <f t="shared" si="3"/>
         <v>2423050</v>
       </c>
@@ -4055,24 +4054,21 @@
       <c r="I19" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="86">
         <f t="shared" ref="J19:J22" ca="1" si="10">SUMIF($B$3:$G$20,I19,$G$3:$G$20)</f>
         <v>466679430</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="92">
-        <f t="shared" ref="M19:M22" si="11">SUMIFS($G$3:$G$20,$B$3:$B$20,L19,$C$3:$C$20,$M$17)</f>
-        <v>162323280</v>
-      </c>
-      <c r="N19" s="92">
-        <f t="shared" ref="N19:N22" si="12">SUMIFS($G$3:$G$20,$B$3:$B$20,L19,$C$3:$C$20,$N$17)</f>
-        <v>94688580</v>
-      </c>
-      <c r="O19" s="92">
-        <f t="shared" ref="O19:O22" si="13">SUMIFS($G$3:$G$20,$B$3:$B$20,L19,$C$3:$C$20,$O$17)</f>
-        <v>209667570</v>
+      <c r="M19" s="118">
+        <v>24</v>
+      </c>
+      <c r="N19" s="118">
+        <v>14</v>
+      </c>
+      <c r="O19" s="118">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4094,7 +4090,7 @@
       <c r="E20" s="40">
         <v>21</v>
       </c>
-      <c r="F20" s="124">
+      <c r="F20" s="100">
         <f t="shared" si="3"/>
         <v>2423050</v>
       </c>
@@ -4105,164 +4101,155 @@
       <c r="I20" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="86">
         <f t="shared" ca="1" si="10"/>
         <v>280652400</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="92">
-        <f t="shared" si="11"/>
+      <c r="M20" s="118">
         <v>0</v>
       </c>
-      <c r="N20" s="92">
-        <f t="shared" si="12"/>
-        <v>152020050</v>
-      </c>
-      <c r="O20" s="92">
-        <f t="shared" si="13"/>
-        <v>128632350</v>
+      <c r="N20" s="118">
+        <v>39</v>
+      </c>
+      <c r="O20" s="118">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="93"/>
+      <c r="D21" s="85"/>
       <c r="I21" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="86">
         <f t="shared" ca="1" si="10"/>
         <v>2460238550</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="92">
-        <f t="shared" si="11"/>
-        <v>1951924800</v>
-      </c>
-      <c r="N21" s="92">
-        <f t="shared" si="12"/>
-        <v>508313750</v>
-      </c>
-      <c r="O21" s="92">
-        <f t="shared" si="13"/>
+      <c r="M21" s="118">
+        <v>96</v>
+      </c>
+      <c r="N21" s="118">
+        <v>25</v>
+      </c>
+      <c r="O21" s="118">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="31" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="59" t="s">
         <v>120</v>
       </c>
       <c r="I22" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="94">
+      <c r="J22" s="86">
         <f t="shared" ca="1" si="10"/>
         <v>548030700</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="92">
-        <f t="shared" si="11"/>
+      <c r="M22" s="118">
         <v>0</v>
       </c>
-      <c r="N22" s="92">
-        <f t="shared" si="12"/>
-        <v>322371000</v>
-      </c>
-      <c r="O22" s="92">
-        <f t="shared" si="13"/>
-        <v>225659700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="68" t="s">
+      <c r="N22" s="118">
+        <v>30</v>
+      </c>
+      <c r="O22" s="118">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="68" t="s">
+    <row r="24" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="60" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="60" t="s">
         <v>124</v>
       </c>
       <c r="K26" s="31"/>
-      <c r="M26" s="95"/>
-    </row>
-    <row r="27" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="M26" s="87"/>
+    </row>
+    <row r="27" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="J27" s="69"/>
+      <c r="J27" s="61"/>
       <c r="K27" s="31"/>
     </row>
-    <row r="28" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="F28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="68" t="s">
+    <row r="31" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-    </row>
-    <row r="32" spans="1:15" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="1:15" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-    </row>
-    <row r="33" spans="1:10" s="68" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="68" t="s">
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="1:10" s="60" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D40" s="72"/>
+      <c r="D40" s="64"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D41" s="72"/>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D42" s="72"/>
+      <c r="D42" s="64"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D43" s="72"/>
+      <c r="D43" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4278,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
@@ -4296,746 +4283,746 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="74">
+      <c r="A3" s="66">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="66" t="str">
         <f>PROPER("nguyễn văn tâm")</f>
         <v>Nguyễn Văn Tâm</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="67">
         <v>32781</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="88">
         <f ca="1">YEAR(NOW())-YEAR(C3)</f>
         <v>32</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="66">
         <v>4</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="66">
         <v>5</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="66">
         <v>3</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="66">
         <f>SUM(E3:G3)</f>
         <v>12</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="66">
         <f>((E3*2)+(F3*2)+G3)/5</f>
         <v>4.2</v>
       </c>
-      <c r="J3" s="99" t="str">
+      <c r="J3" s="91" t="str">
         <f>IF(I3&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="74">
+      <c r="A4" s="66">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="66" t="str">
         <f>PROPER("nguyễn thị hằng")</f>
         <v>Nguyễn Thị Hằng</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="67">
         <v>32803</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="88">
         <f t="shared" ref="D4:D17" ca="1" si="0">YEAR(NOW())-YEAR(C4)</f>
         <v>32</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="66">
         <v>5</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="66">
         <v>2</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="66">
         <v>8</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="66">
         <f t="shared" ref="H4:H17" si="1">SUM(E4:G4)</f>
         <v>15</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="66">
         <f t="shared" ref="I4:I17" si="2">((E4*2)+(F4*2)+G4)/5</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J4" s="99" t="str">
+      <c r="J4" s="91" t="str">
         <f t="shared" ref="J4:J17" si="3">IF(I4&gt;=5,"ĐẬU","RỚT")</f>
         <v>RỚT</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="74">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="66" t="str">
         <f>PROPER("ngô thị nga")</f>
         <v>Ngô Thị Nga</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="67">
         <v>33856</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="66">
         <v>6</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="66">
         <v>6</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="66">
         <v>6</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="66">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="66">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J5" s="97" t="str">
+      <c r="J5" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="74">
+      <c r="A6" s="66">
         <v>4</v>
       </c>
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="66" t="str">
         <f>PROPER("trần thiên thu")</f>
         <v>Trần Thiên Thu</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="67">
         <v>35061</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="66">
         <v>2</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="66">
         <v>5</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="66">
         <v>5</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="66">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="66">
         <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="J6" s="99" t="str">
+      <c r="J6" s="91" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="74">
+      <c r="A7" s="66">
         <v>5</v>
       </c>
-      <c r="B7" s="74" t="str">
+      <c r="B7" s="66" t="str">
         <f>PROPER("lâm hoàng cát")</f>
         <v>Lâm Hoàng Cát</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="67">
         <v>32383</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="66">
         <v>7</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="66">
         <v>5</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="66">
         <v>7</v>
       </c>
-      <c r="H7" s="74">
+      <c r="H7" s="66">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="66">
         <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="J7" s="97" t="str">
+      <c r="J7" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="74">
+      <c r="A8" s="66">
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="str">
+      <c r="B8" s="66" t="str">
         <f>PROPER("lê hoài sơn")</f>
         <v>Lê Hoài Sơn</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="67">
         <v>33176</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="66">
         <v>8</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="66">
         <v>5</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="66">
         <v>7</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="66">
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="J8" s="97" t="str">
+      <c r="J8" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="74">
+      <c r="A9" s="66">
         <v>7</v>
       </c>
-      <c r="B9" s="74" t="str">
+      <c r="B9" s="66" t="str">
         <f>PROPER("lý lâm")</f>
         <v>Lý Lâm</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="67">
         <v>36102</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="66">
         <v>9</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="66">
         <v>5</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="66">
         <v>8</v>
       </c>
-      <c r="H9" s="74">
+      <c r="H9" s="66">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="66">
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="J9" s="97" t="str">
+      <c r="J9" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="74">
+      <c r="A10" s="66">
         <v>8</v>
       </c>
-      <c r="B10" s="74" t="str">
+      <c r="B10" s="66" t="str">
         <f>PROPER("trần văn trung")</f>
         <v>Trần Văn Trung</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="67">
         <v>33140</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="66">
         <v>4</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="66">
         <v>5</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="66">
         <v>6</v>
       </c>
-      <c r="H10" s="74">
+      <c r="H10" s="66">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="66">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="J10" s="99" t="str">
+      <c r="J10" s="91" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="74">
+      <c r="A11" s="66">
         <v>9</v>
       </c>
-      <c r="B11" s="74" t="str">
+      <c r="B11" s="66" t="str">
         <f>PROPER("nguyễn văn tráng")</f>
         <v>Nguyễn Văn Tráng</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="67">
         <v>35045</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="66">
         <v>6</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="66">
         <v>5</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="66">
         <v>5</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="66">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="66">
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="J11" s="97" t="str">
+      <c r="J11" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="74">
+      <c r="A12" s="66">
         <v>10</v>
       </c>
-      <c r="B12" s="74" t="str">
+      <c r="B12" s="66" t="str">
         <f>PROPER("lý thu nga")</f>
         <v>Lý Thu Nga</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="67">
         <v>32446</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="66">
         <v>8</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="66">
         <v>4</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="66">
         <v>6</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="66">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="66">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J12" s="97" t="str">
+      <c r="J12" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="74">
+      <c r="A13" s="66">
         <v>11</v>
       </c>
-      <c r="B13" s="74" t="str">
+      <c r="B13" s="66" t="str">
         <f>PROPER("nguyễn văn hùng")</f>
         <v>Nguyễn Văn Hùng</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="67">
         <v>33137</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="66">
         <v>4</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="66">
         <v>4</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="66">
         <v>6</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="66">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="66">
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="J13" s="99" t="str">
+      <c r="J13" s="91" t="str">
         <f t="shared" si="3"/>
         <v>RỚT</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="74">
+      <c r="A14" s="66">
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="str">
+      <c r="B14" s="66" t="str">
         <f>PROPER("trần thi phượng")</f>
         <v>Trần Thi Phượng</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="67">
         <v>33480</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="66">
         <v>7</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="66">
         <v>7</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="66">
         <v>6</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="66">
         <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
-      <c r="J14" s="97" t="str">
+      <c r="J14" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="74">
+      <c r="A15" s="66">
         <v>13</v>
       </c>
-      <c r="B15" s="74" t="str">
+      <c r="B15" s="66" t="str">
         <f>PROPER("võ công thành")</f>
         <v>Võ Công Thành</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="67">
         <v>34974</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="66">
         <v>8</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="66">
         <v>8</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="66">
         <v>5</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="66">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="66">
         <f t="shared" si="2"/>
         <v>7.4</v>
       </c>
-      <c r="J15" s="97" t="str">
+      <c r="J15" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="74">
+      <c r="A16" s="66">
         <v>14</v>
       </c>
-      <c r="B16" s="74" t="str">
+      <c r="B16" s="66" t="str">
         <f>PROPER("lê văn minh")</f>
         <v>Lê Văn Minh</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="67">
         <v>33126</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="66">
         <v>3</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="66">
         <v>9</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="66">
         <v>8</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="66">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="66">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="J16" s="97" t="str">
+      <c r="J16" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="74">
+      <c r="A17" s="66">
         <v>15</v>
       </c>
-      <c r="B17" s="74" t="str">
+      <c r="B17" s="66" t="str">
         <f>PROPER("doãn hòa")</f>
         <v>Doãn Hòa</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="67">
         <v>32983</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="90">
         <v>5</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="90">
         <v>8</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="90">
         <v>9</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="66">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="66">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J17" s="97" t="str">
+      <c r="J17" s="89" t="str">
         <f t="shared" si="3"/>
         <v>ĐẬU</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="74">
+      <c r="B18" s="116"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="66">
         <f>SUM(E3:E17)</f>
         <v>86</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="66">
         <f t="shared" ref="F18:G18" si="4">SUM(F3:F17)</f>
         <v>83</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="66">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="125">
+      <c r="B19" s="116"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="101">
         <f>AVERAGE(E3:E17)</f>
         <v>5.7333333333333334</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="101">
         <f t="shared" ref="F19:G19" si="5">AVERAGE(F3:F17)</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="101">
         <f t="shared" si="5"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="74">
+      <c r="B20" s="116"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="66">
         <f>MAX(E3:E17)</f>
         <v>9</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="66">
         <f t="shared" ref="F20:G20" si="6">MAX(F3:F17)</f>
         <v>9</v>
       </c>
-      <c r="G20" s="74">
+      <c r="G20" s="66">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="116" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="74">
+      <c r="B21" s="116"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="66">
         <f>MIN(E3:E17)</f>
         <v>2</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="66">
         <f>MIN(F3:F17)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="74">
+      <c r="G21" s="66">
         <f>MIN(G3:G17)</f>
         <v>3</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+    <row r="24" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="78"/>
-    </row>
-    <row r="26" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
+      <c r="C25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="69" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+    <row r="27" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+    <row r="28" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="69" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="77" t="s">
+    <row r="29" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+    <row r="30" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="77" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
+    <row r="31" spans="1:10" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="69" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="69" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5073,475 +5060,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="71" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102">
+      <c r="A3" s="94">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="72">
         <v>8</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="72">
         <v>15</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="72">
         <v>9</v>
       </c>
-      <c r="F3" s="100">
+      <c r="F3" s="92">
         <f>AVERAGE(C3:E3)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="G3" s="101" t="str">
+      <c r="G3" s="93" t="str">
         <f>IF(F3&gt;=16,"Excellent",IF(AND(F3&lt;16,F3&gt;=14),"Very Good",IF(AND(F3&lt;14,F3&gt;=12),"Good",IF(AND(F3&lt;12,F3&gt;=10),"Pass","Fail"))))</f>
         <v>Pass</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="72">
         <f>RANK(F3,$F$3:$F$13,0)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="80" t="str">
+      <c r="I3" s="72" t="str">
         <f>IF(AND(F3&gt;12,C3&gt;10,D3&gt;10,E3&gt;10),"Thưởng","Không thưởng")</f>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="102">
+      <c r="A4" s="94">
         <v>2</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="72">
         <v>4</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="72">
         <v>15</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="72">
         <v>16</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="92">
         <f t="shared" ref="F4:F13" si="0">AVERAGE(C4:E4)</f>
         <v>11.666666666666666</v>
       </c>
-      <c r="G4" s="101" t="str">
+      <c r="G4" s="93" t="str">
         <f t="shared" ref="G4:G13" si="1">IF(F4&gt;=16,"Excellent",IF(AND(F4&lt;16,F4&gt;=14),"Very Good",IF(AND(F4&lt;14,F4&gt;=12),"Good",IF(AND(F4&lt;12,F4&gt;=10),"Pass","Fail"))))</f>
         <v>Pass</v>
       </c>
-      <c r="H4" s="80">
+      <c r="H4" s="72">
         <f t="shared" ref="H4:H13" si="2">RANK(F4,$F$3:$F$13,0)</f>
         <v>5</v>
       </c>
-      <c r="I4" s="80" t="str">
+      <c r="I4" s="72" t="str">
         <f t="shared" ref="I4:I13" si="3">IF(AND(F4&gt;12,C4&gt;10,D4&gt;10,E4&gt;10),"Thưởng","Không thưởng")</f>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="102">
+      <c r="A5" s="94">
         <v>3</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="72">
         <v>11</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="72">
         <v>6</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="72">
         <v>8</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="92">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="G5" s="101" t="str">
+      <c r="G5" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="72">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I5" s="80" t="str">
+      <c r="I5" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="102">
+      <c r="A6" s="94">
         <v>4</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="72">
         <v>17</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="72">
         <v>16</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="72">
         <v>3</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="92">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G6" s="101" t="str">
+      <c r="G6" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="H6" s="80">
+      <c r="H6" s="72">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I6" s="80" t="str">
+      <c r="I6" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="102">
+      <c r="A7" s="94">
         <v>5</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="72">
         <v>17</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="72">
         <v>18</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="72">
         <v>10</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="92">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G7" s="101" t="str">
+      <c r="G7" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Very Good</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="72">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I7" s="80" t="str">
+      <c r="I7" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="102">
+      <c r="A8" s="94">
         <v>6</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="72">
         <v>6</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="72">
         <v>5</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="72">
         <v>13</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="92">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G8" s="101" t="str">
+      <c r="G8" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
-      <c r="H8" s="80">
+      <c r="H8" s="72">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I8" s="80" t="str">
+      <c r="I8" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="102">
+      <c r="A9" s="94">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="72">
         <v>18</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="72">
         <v>19</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="72">
         <v>15</v>
       </c>
-      <c r="F9" s="100">
+      <c r="F9" s="92">
         <f t="shared" si="0"/>
         <v>17.333333333333332</v>
       </c>
-      <c r="G9" s="101" t="str">
+      <c r="G9" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Excellent</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9" s="80" t="str">
+      <c r="I9" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Thưởng</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="102">
+      <c r="A10" s="94">
         <v>8</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="72">
         <v>15</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="72">
         <v>8</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="72">
         <v>6</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="92">
         <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="G10" s="101" t="str">
+      <c r="G10" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
-      <c r="H10" s="80">
+      <c r="H10" s="72">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I10" s="80" t="str">
+      <c r="I10" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="102">
+      <c r="A11" s="94">
         <v>9</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="72">
         <v>15</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="72">
         <v>4</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="72">
         <v>16</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G11" s="101" t="str">
+      <c r="G11" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="72">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I11" s="80" t="str">
+      <c r="I11" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="102">
+      <c r="A12" s="94">
         <v>10</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="72">
         <v>6</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="72">
         <v>11</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="72">
         <v>18</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="92">
         <f t="shared" si="0"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="G12" s="101" t="str">
+      <c r="G12" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-      <c r="H12" s="80">
+      <c r="H12" s="72">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I12" s="80" t="str">
+      <c r="I12" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="102">
+      <c r="A13" s="94">
         <v>11</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="72">
         <v>16</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="72">
         <v>17</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="72">
         <v>5</v>
       </c>
-      <c r="F13" s="100">
+      <c r="F13" s="92">
         <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="G13" s="101" t="str">
+      <c r="G13" s="93" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="H13" s="80">
+      <c r="H13" s="72">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I13" s="80" t="str">
+      <c r="I13" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Không thưởng</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="81"/>
-    </row>
-    <row r="16" spans="1:9" s="83" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
+      <c r="C15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" s="75" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="84"/>
-    </row>
-    <row r="17" spans="1:3" s="83" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="83" t="s">
+      <c r="B16" s="76"/>
+    </row>
+    <row r="17" spans="1:3" s="75" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="75" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="83" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="83" t="s">
+    <row r="18" spans="1:3" s="75" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="75" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="83" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="83" t="s">
+    <row r="19" spans="1:3" s="75" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="85"/>
-    </row>
-    <row r="20" spans="1:3" s="83" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="s">
+      <c r="C19" s="77"/>
+    </row>
+    <row r="20" spans="1:3" s="75" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="85"/>
-    </row>
-    <row r="21" spans="1:3" s="83" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="s">
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3" s="75" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="85"/>
-    </row>
-    <row r="22" spans="1:3" s="86" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="83" t="s">
+      <c r="C21" s="77"/>
+    </row>
+    <row r="22" spans="1:3" s="78" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="85"/>
-    </row>
-    <row r="23" spans="1:3" s="86" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="83" t="s">
+      <c r="C22" s="77"/>
+    </row>
+    <row r="23" spans="1:3" s="78" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="85"/>
-    </row>
-    <row r="24" spans="1:3" s="86" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="83" t="s">
+      <c r="C23" s="77"/>
+    </row>
+    <row r="24" spans="1:3" s="78" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="75" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="86" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="83" t="s">
+    <row r="25" spans="1:3" s="78" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="75" t="s">
         <v>184</v>
       </c>
     </row>
